--- a/ocms/src/test/resources/DownloadedFiles/Branch Management (1).xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Branch Management (1).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t xml:space="preserve">MainLines</t>
   </si>
@@ -58,58 +58,31 @@
     <t xml:space="preserve">Last Changed On</t>
   </si>
   <si>
-    <t xml:space="preserve">HDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Zone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheldon.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheldon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12566</t>
+    <t xml:space="preserve">MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East-West Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">welcome.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">welcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900</t>
   </si>
   <si>
     <t xml:space="preserve">Enable</t>
   </si>
   <si>
     <t xml:space="preserve">English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qatetherfi\administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/01/2020 12:32:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East-West Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcome.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">900</t>
   </si>
   <si>
     <t xml:space="preserve">bengteth\administrator</t>
@@ -222,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -329,125 +302,84 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
